--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -14,60 +14,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>https://www.fincaraiz.com.co/inmueble/local-en-arriendo/cota/cota/4985991</t>
-  </si>
-  <si>
-    <t>$ 2.000.000</t>
-  </si>
-  <si>
-    <t>Local en arriendo</t>
-  </si>
-  <si>
-    <t>cota - Cota</t>
-  </si>
-  <si>
-    <t>Descripción general</t>
-  </si>
-  <si>
-    <t>Encuentra,  Arrienda o Vende con nosotros. Siempre más opciones en www.homesnbricks.com Visitanos!! En arriendo local comercial en Arena Bogotá. Contamos con áreas desde 10m2 en adelante. El complejo inmobiliario más ambicioso del país,  está ubicado en el principal centro de desarrollo y valorización de la Bogotá ampliada. Contará con: Arena Market (concepto de mercado estilo europeo para degustar platos de todo el mundo) - Arena Fest,  para jóvenes,  zona de locales con contenido para el entretenimiento - Coliseo de eventos: Arena Bogotá ofrecerá capacidad para más de 22.000 personas que disfrutarán cómodamente de una gran variedad de eventos  Arena Kids,  Hotel,  Salas de Cine .</t>
-  </si>
-  <si>
-    <t>Código Fincaraíz: 4985991</t>
-  </si>
-  <si>
-    <t>Leer más</t>
-  </si>
-  <si>
-    <t>Área construída</t>
-  </si>
-  <si>
-    <t>18 m²</t>
-  </si>
-  <si>
-    <t>Área privada</t>
-  </si>
-  <si>
-    <t>12 m²</t>
-  </si>
-  <si>
-    <t>Estrato</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+  <si>
+    <t>https://www.fincaraiz.com.co/inmueble/local-en-arriendo/chapinero-norte/bogota/6703031</t>
+  </si>
+  <si>
+    <t>https://www.fincaraiz.com.co/proyecto-de-vivienda/vitra-art-apartamentos/chapinero-central/bogota/6337605</t>
+  </si>
+  <si>
+    <t>https://www.fincaraiz.com.co/proyecto-de-vivienda/sorrento/restrepo/bogota/3760694</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>PrecioM2</t>
+  </si>
+  <si>
+    <t>estrato</t>
+  </si>
+  <si>
+    <t>Tipo de Cliente</t>
+  </si>
+  <si>
+    <t>latitud</t>
+  </si>
+  <si>
+    <t>longitud</t>
+  </si>
+  <si>
+    <t>local-en-arriendo</t>
+  </si>
+  <si>
+    <t>chapinero-norte</t>
+  </si>
+  <si>
+    <t>bogota</t>
+  </si>
+  <si>
+    <t>6703031</t>
+  </si>
+  <si>
+    <t>cr. 14  63 - 20</t>
+  </si>
+  <si>
+    <t>costo de administración INCLUYE agua, Planta eléctrica con suplencia total, Cámara de vigilancia justo al lado, Recorredor,  Aseo exterior 2 veces al día, Carga 15kv admite equipos grandes, Luz trifásica, Parqueo público dentro del edifico, Zona totalmente comercial sobre la Caracas y a 20 metros de la calle 63.</t>
+  </si>
+  <si>
+    <t>22935.77981651376</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Antigüedad</t>
-  </si>
-  <si>
-    <t>1 a 8 años</t>
-  </si>
-  <si>
-    <t>Administración</t>
-  </si>
-  <si>
-    <t>No definida</t>
+    <t>particular</t>
+  </si>
+  <si>
+    <t>vitra-art-apartamentos</t>
+  </si>
+  <si>
+    <t>chapinero-central</t>
+  </si>
+  <si>
+    <t>6337605</t>
+  </si>
+  <si>
+    <t>Av. Caracas 58 - 28</t>
+  </si>
+  <si>
+    <t>Vitra Art Apartamentos, la mejor inversión en Bogotá. Edf. de 25 pisos con 281 unidades de vivienda (con licencia turística Airbnb) ubicado estratégicamente en el sector de Chapinero, tradicionalmente un barrio empresarial, comercial y universitario. El diseño de este proyecto es moderno, innovando en fachadas y ventanearías, con acabados de la mejor calidad y muy bien logrados. ULTIMOS Apartamentos disponibles para ESTRENAR! (ENTREGA INMEDIATA). AGENDA TU CITA! www.proyectamosyedificamos.com.</t>
+  </si>
+  <si>
+    <t>38910.505836575874</t>
+  </si>
+  <si>
+    <t>constructora</t>
+  </si>
+  <si>
+    <t>sorrento</t>
+  </si>
+  <si>
+    <t>restrepo</t>
+  </si>
+  <si>
+    <t>3760694</t>
+  </si>
+  <si>
+    <t>Carrera 29A 17-42Sur</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>5150000.0</t>
   </si>
 </sst>
 </file>
@@ -425,105 +485,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B8">
+        <v>109</v>
+      </c>
+      <c r="C8">
+        <v>25.7</v>
+      </c>
+      <c r="D8">
+        <v>23.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B9">
+        <v>2500000</v>
+      </c>
+      <c r="C9">
+        <v>24192275</v>
+      </c>
+      <c r="D9">
+        <v>289506000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B13">
+        <v>4.649727344512939</v>
+      </c>
+      <c r="C13">
+        <v>70.23</v>
+      </c>
+      <c r="D13">
+        <v>4.593146800994873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="B14">
+        <v>-74.06437683105469</v>
+      </c>
+      <c r="C14">
+        <v>-70.45</v>
+      </c>
+      <c r="D14">
+        <v>-74.10810089111328</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+    <hyperlink ref="D1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -1,28 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Scripts\webScraping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
-  <si>
-    <t>https://www.fincaraiz.com.co/inmueble/local-en-arriendo/chapinero-norte/bogota/6703031</t>
-  </si>
-  <si>
-    <t>https://www.fincaraiz.com.co/proyecto-de-vivienda/vitra-art-apartamentos/chapinero-central/bogota/6337605</t>
-  </si>
-  <si>
-    <t>https://www.fincaraiz.com.co/proyecto-de-vivienda/sorrento/restrepo/bogota/3760694</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="191">
+  <si>
+    <t>https://fincaraiz.com.co/proyecto-de-vivienda/vitra-art-apartamentos/chapinero-central/bogota/6337605</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/concepcion-norte-los-alcazares/bogota/5959950</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/colina-campestre/bogota/6719340</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/conjunto-la-estancia-3/mosquera/6252232</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/mejoras-publicas/bucaramanga/6715905</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/villa-campestre/barranquilla/6716172</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/antiguo-country/bogota/6723302</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/pinar-de-suba/bogota/6725646</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/colina-campestre/bogota/6720172</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/bella-suiza/bogota/6603276</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/centro-internacional/bogota/6711747</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/loma-san-jose/sabaneta/6726216</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/chapinero-alto/bogota/6716001</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/milenta/bogota/6726310</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/santa-barbara-oriental/bogota/6636647</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/chico-navarra/bogota/6723224</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/san-cristobal-norte/bogota/6726582</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/san-martin/bogota/6726032</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/suba-centro/bogota/6498571</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/san-antonio/bogota/6725689</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/calatrava/bogota/6715999</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/pasadena/bogota/6714432</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/villa-santos/puerto-colombia/6365417</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/avenida-libano/santa-marta/6374557</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/nueva-autopista/bogota/6604931</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/bonanza/bogota/6726014</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/apartamento-en-arriendo/reserva-del-lago/cajica/6713909</t>
   </si>
   <si>
     <t>Titulo</t>
@@ -64,77 +141,464 @@
     <t>longitud</t>
   </si>
   <si>
-    <t>local-en-arriendo</t>
-  </si>
-  <si>
-    <t>chapinero-norte</t>
+    <t>vitra-art-apartamentos</t>
+  </si>
+  <si>
+    <t>chapinero-central</t>
   </si>
   <si>
     <t>bogota</t>
   </si>
   <si>
-    <t>6703031</t>
-  </si>
-  <si>
-    <t>cr. 14  63 - 20</t>
-  </si>
-  <si>
-    <t>costo de administración INCLUYE agua, Planta eléctrica con suplencia total, Cámara de vigilancia justo al lado, Recorredor,  Aseo exterior 2 veces al día, Carga 15kv admite equipos grandes, Luz trifásica, Parqueo público dentro del edifico, Zona totalmente comercial sobre la Caracas y a 20 metros de la calle 63.</t>
-  </si>
-  <si>
-    <t>22935.77981651376</t>
+    <t>6337605</t>
+  </si>
+  <si>
+    <t>Av. Caracas 58 - 28</t>
+  </si>
+  <si>
+    <t>Vitra Art Apartamentos, la mejor inversión en Bogotá. Edf. de 25 pisos con 281 unidades de vivienda (con licencia turística Airbnb) ubicado estratégicamente en el sector de Chapinero, tradicionalmente un barrio empresarial, comercial y universitario. El diseño de este proyecto es moderno, innovando en fachadas y ventanearías, con acabados de la mejor calidad y muy bien logrados. ULTIMOS Apartamentos disponibles para ESTRENAR! (ENTREGA INMEDIATA). AGENDA TU CITA! www.proyectamosyedificamos.com.</t>
+  </si>
+  <si>
+    <t>38910.505836575874</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>constructora</t>
+  </si>
+  <si>
+    <t>apartamento-en-arriendo</t>
+  </si>
+  <si>
+    <t>concepcion-norte-los-alcazares</t>
+  </si>
+  <si>
+    <t>5959950</t>
+  </si>
+  <si>
+    <t>Calle 71a</t>
+  </si>
+  <si>
+    <t>ARR ID HOUM: 19639   SERVICIOS INCLUIDOS: AGUA,  LUZ,  GAS.  Espectacular Aparta-estudio tipo loft,  ubicado en el barrio La Concepción. El aparta-estudio cuenta con 28 M2,  con una distribución de cocina integral,  1 habitación,  1 baño,  1 armario. Cerca a la calle 72,  y Cra. 15. La casa cuenta con una terraza amplia,  zona de lavandería,  1 parqueadero. ¡Arriéndalo Rápido,  Seguro y Online! Con HOUM,  no necesitas Fiador/codeudor y puedes hacer todo tu proceso online!..</t>
+  </si>
+  <si>
+    <t>37500.0</t>
+  </si>
+  <si>
+    <t>inmobiliaria</t>
+  </si>
+  <si>
+    <t>colina-campestre</t>
+  </si>
+  <si>
+    <t>6719340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrera 54D # 135-60 </t>
+  </si>
+  <si>
+    <t>Apartamento con excelente ubicación cerca al club de suboficiales de la calle 138 Segundo piso dos habitaciones con clóset 2 baños sala comedor cocina integral garaje cubierto Bodega opcional estrato cuatro</t>
+  </si>
+  <si>
+    <t>17857.14285714286</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>particular</t>
   </si>
   <si>
-    <t>vitra-art-apartamentos</t>
-  </si>
-  <si>
-    <t>chapinero-central</t>
-  </si>
-  <si>
-    <t>6337605</t>
-  </si>
-  <si>
-    <t>Av. Caracas 58 - 28</t>
-  </si>
-  <si>
-    <t>Vitra Art Apartamentos, la mejor inversión en Bogotá. Edf. de 25 pisos con 281 unidades de vivienda (con licencia turística Airbnb) ubicado estratégicamente en el sector de Chapinero, tradicionalmente un barrio empresarial, comercial y universitario. El diseño de este proyecto es moderno, innovando en fachadas y ventanearías, con acabados de la mejor calidad y muy bien logrados. ULTIMOS Apartamentos disponibles para ESTRENAR! (ENTREGA INMEDIATA). AGENDA TU CITA! www.proyectamosyedificamos.com.</t>
-  </si>
-  <si>
-    <t>38910.505836575874</t>
-  </si>
-  <si>
-    <t>constructora</t>
-  </si>
-  <si>
-    <t>sorrento</t>
-  </si>
-  <si>
-    <t>restrepo</t>
-  </si>
-  <si>
-    <t>3760694</t>
-  </si>
-  <si>
-    <t>Carrera 29A 17-42Sur</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>5150000.0</t>
+    <t>conjunto-la-estancia-3</t>
+  </si>
+  <si>
+    <t>mosquera</t>
+  </si>
+  <si>
+    <t>6252232</t>
+  </si>
+  <si>
+    <t>Calle 17 13-03 ESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento en excelente estado , recién remodelado, todos los cuartos con persianas , sala con panel japonés , 3 habitaciones todas con closets, baño en el cuarto principal y baño auxiliar , zona de lavandería independiente de la cocina. </t>
+  </si>
+  <si>
+    <t>14285.714285714286</t>
+  </si>
+  <si>
+    <t>mejoras-publicas</t>
+  </si>
+  <si>
+    <t>bucaramanga</t>
+  </si>
+  <si>
+    <t>6715905</t>
+  </si>
+  <si>
+    <t>calle 35  27 47</t>
+  </si>
+  <si>
+    <t>Espectacular apartamento en el barrio Mejoras Publicas muy central, el inmueble cuenta con 4 habitaciones amplias, 3 baños sala cocina integral y zona de ropas, la administración esta incluida en el canon. NO TIENE PARQUEADERO, progama tu cita con Diego Monsalve</t>
+  </si>
+  <si>
+    <t>9615.384615384615</t>
+  </si>
+  <si>
+    <t>villa-campestre</t>
+  </si>
+  <si>
+    <t>barranquilla</t>
+  </si>
+  <si>
+    <t>6716172</t>
+  </si>
+  <si>
+    <t>Calle 3a No.23-88</t>
+  </si>
+  <si>
+    <t>SIN MUEBLES Ubicación: Vía Puerto Colombia (Villa Campestre) Avenida Tajamares Calle 3a No.23-88 Edificio Torres de Mallorquín Piso 4 Área Privada 97,08 Mts2 Área construida 87.08 Mts2Consta de: 3 habitaciones, 2 baños, cocina integral, zona de labores, sala de estar y TV, balcón y parqueadero subterráneo propio, vista interior sombra mañana y tarde.Áreas comunes: Piscina adultos y niños, solárium, gimnasio, baños sauna/turco, cancha múltiple, salón de juegos, zona de juegos infantiles y BBQ</t>
+  </si>
+  <si>
+    <t>13917.525773195875</t>
+  </si>
+  <si>
+    <t>antiguo-country</t>
+  </si>
+  <si>
+    <t>6723302</t>
+  </si>
+  <si>
+    <t>CL 128A  18 - 30</t>
+  </si>
+  <si>
+    <t>Hermoso apartamento en LA CALLEJA. 2 habitaciones, 3 baños 1 habitación de servicio o estudio.</t>
+  </si>
+  <si>
+    <t>12222.222222222223</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pinar-de-suba</t>
+  </si>
+  <si>
+    <t>6725646</t>
+  </si>
+  <si>
+    <t>cra 96a  152a-31</t>
+  </si>
+  <si>
+    <t>Espectacular apartamento duplex 120 m ubicado en Suba Pinar Hermosa vista rodeado de naturaleza Consta de sala con chimenea comedor 4 habitaciones amplias con closet cada una estudio dos baños fuente de agua en el segundo nivel cocina integral zona lavanderia 3 depositos parqueadero pisos en madera y porcelanato Parque infantil Informes llame al tres veinte cuatro veintesiete cero ocho cincuenta y seis</t>
+  </si>
+  <si>
+    <t>12.916666666666666</t>
+  </si>
+  <si>
+    <t>6720172</t>
+  </si>
+  <si>
+    <t>carrera 65 No165 21</t>
+  </si>
+  <si>
+    <t>Apto ubicado en sector colina campestre cerca a la clínica la colina, buena iluminación ,consta de tres alcobas,2 closet, un baño amplio cerca a la parada de alimentador san José 5 parada</t>
+  </si>
+  <si>
+    <t>17000.0</t>
+  </si>
+  <si>
+    <t>bella-suiza</t>
+  </si>
+  <si>
+    <t>6603276</t>
+  </si>
+  <si>
+    <t>CALLE 129  7 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXCELENTE APTO ILUMINADO EN QUINTO PISO  EXTERIOR DE 102 MTS 3 ALCOBAS  3 BAÑOS SALACOMEDOR ESTUDIO,  COCINA ABIERTA  LAVANDERIA INDEPENDIENTE, 2 PARQUEADEROS EN LINEA DEPOSITO, TERRAZA COMUNAL  CON BBQ.  VIGILANCIA 24 HORAS. EXCELENTES VIAS DE ACCESO A DOS CUADRAS UNIVERSIDAD EL BOSQUE, CC PALATINO  EXITO DE LA CALLE 134. </t>
+  </si>
+  <si>
+    <t>26470.58823529412</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>centro-internacional</t>
+  </si>
+  <si>
+    <t>6711747</t>
+  </si>
+  <si>
+    <t>Av Calle 32 Cra 13-883</t>
+  </si>
+  <si>
+    <t>Arriendo mejor sector de Bogotá Tres habitaciones dos baños cuarto de lavado independiente garaje concepto abierto bodega dos balcones amplio iluminado</t>
+  </si>
+  <si>
+    <t>34210.52631578947</t>
+  </si>
+  <si>
+    <t>loma-san-jose</t>
+  </si>
+  <si>
+    <t>sabaneta</t>
+  </si>
+  <si>
+    <t>6726216</t>
+  </si>
+  <si>
+    <t>MADEROS DEL CAMPO</t>
+  </si>
+  <si>
+    <t>APTO PISO 23, 3 ALCOBAS PRINCIPAL CON BAÑO Y VESTIER SALA COMEDOR,BAÑO AUXILIAR, COCINA INTEGRAL, PATIO DE ROPAS,CUARTO UTIL, CORTINAS,PARQUEADERO DOBLE, EXCELENTE VISTA</t>
+  </si>
+  <si>
+    <t>21111.11111111111</t>
+  </si>
+  <si>
+    <t>chapinero-alto</t>
+  </si>
+  <si>
+    <t>6716001</t>
+  </si>
+  <si>
+    <t>carrera 6 Nº 57-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se Arrienda amplio apto  excelente ubicación 6 piso exterior con ascensor área de 84,06mts consta de 3 habitaciones 2 baños área social con chimenea, cocina integral, con zona de lavandería  aparte garaje cubierto y deposito estrato 4 </t>
+  </si>
+  <si>
+    <t>32142.85714285714</t>
+  </si>
+  <si>
+    <t>milenta</t>
+  </si>
+  <si>
+    <t>6726310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr 56 Sur 16-50 </t>
+  </si>
+  <si>
+    <t>Perfecto estado Recién remodelado Valor incluye parquedero y administración</t>
+  </si>
+  <si>
+    <t>22222.222222222223</t>
+  </si>
+  <si>
+    <t>santa-barbara-oriental</t>
+  </si>
+  <si>
+    <t>6636647</t>
+  </si>
+  <si>
+    <t>Cll 126 N° 7A-10</t>
+  </si>
+  <si>
+    <t>Excelente iluminación, ubicación inmejorable.Dentro de las zonas comunes el edificio cuenta con una terraza dotada en el ultimo piso con una gran vista, ideal para reuniones.</t>
+  </si>
+  <si>
+    <t>30937.5</t>
+  </si>
+  <si>
+    <t>chico-navarra</t>
+  </si>
+  <si>
+    <t>6723224</t>
+  </si>
+  <si>
+    <t>calle 106 19a</t>
+  </si>
+  <si>
+    <t>Una habitacion, dos parqueaderos amplios, chimenea, cocina electrica, quinto piso ascensor. Edificio muy bien mantenido y elegante.</t>
+  </si>
+  <si>
+    <t>29090.909090909092</t>
+  </si>
+  <si>
+    <t>san-cristobal-norte</t>
+  </si>
+  <si>
+    <t>6726582</t>
+  </si>
+  <si>
+    <t>Cra 8 No. 164</t>
+  </si>
+  <si>
+    <t>Arriendo bonito apartamento 3er piso consta 1 habitación con closet 1 baño sala comedor cocina integral zona de lavandería balcón se entrega con cortinas blackup pisos en baldosa bien iluminado</t>
+  </si>
+  <si>
+    <t>22500.0</t>
+  </si>
+  <si>
+    <t>san-martin</t>
+  </si>
+  <si>
+    <t>6726032</t>
+  </si>
+  <si>
+    <t>CALLE 32  6A-15 AP 803</t>
+  </si>
+  <si>
+    <t>Apartaestudio tipo loft ubicado en el edificio equilibrium cuenta con club house con piscina, zona de BBQ, salón coworking, recepción tipo lobby, parqueadero de visitantes.</t>
+  </si>
+  <si>
+    <t>34905.660377358494</t>
+  </si>
+  <si>
+    <t>suba-centro</t>
+  </si>
+  <si>
+    <t>6498571</t>
+  </si>
+  <si>
+    <t>Calle 137A  99A</t>
+  </si>
+  <si>
+    <t>Gran apartamento ubicado en la localidad de Suba Barrio La Trinitaria A 3 min se encuentra la Av Suba antigua por donde transitan varias rutas de transporte publico sino a 5 min a pie se encuentra la estación de Transmilenio La Campiña El apto esta ubicado en un 2do piso de una casa de tres pisos que le permite una excelente iluminación y un gran espacio El servicio de la luz solo con el 3er piso y del agua son compartidos se divide por cabeza</t>
+  </si>
+  <si>
+    <t>11333.333333333334</t>
+  </si>
+  <si>
+    <t>san-antonio</t>
+  </si>
+  <si>
+    <t>6725689</t>
+  </si>
+  <si>
+    <t>Cra 18  183-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermoso apartamento en excelente ubicación cerca a Estación cll 187. Súper iluminado y ventilado. Se entrega recién pintado y con cortinas nuevas. Arriendo directamente con aseguradora. </t>
+  </si>
+  <si>
+    <t>24705.882352941175</t>
+  </si>
+  <si>
+    <t>calatrava</t>
+  </si>
+  <si>
+    <t>6715999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 127 # 87-51 </t>
+  </si>
+  <si>
+    <t>Espectacular apartamento al lado de el club los lagartos vista interior con hermosos acabados El conjunto cuenta con piscina cancha de squash gimnasio ascensor parqueadero de visitantes lobbys El apartamento cuenta con dos habitaciones una con balcón closets cocina integral y dos baños uno con ducha hidromasaje y persianas eléctricas con control remoto en todo el apartamento</t>
+  </si>
+  <si>
+    <t>34545.454545454544</t>
+  </si>
+  <si>
+    <t>pasadena</t>
+  </si>
+  <si>
+    <t>6714432</t>
+  </si>
+  <si>
+    <t>Carrera 51 104B -69  Apto 202</t>
+  </si>
+  <si>
+    <t>Acogedor apto en Pasadena. Excelente iluminación, vista exterior.sala comedor cocina integral a gas. 2 Alcobas con closet 2 Baños. Altillo para estudio o actividades de gimnasia. 1 Garaje cubierto, 1depósito. Vigilancia las 24 y monitoreada. Vías de acceso Auto Pista Norte, Av. suba, calle 100, cerca de supermercados. El precio incluye la administración. Se arrienda directamente con Póliza de seguro.</t>
+  </si>
+  <si>
+    <t>26953.125</t>
+  </si>
+  <si>
+    <t>villa-santos</t>
+  </si>
+  <si>
+    <t>puerto-colombia</t>
+  </si>
+  <si>
+    <t>6365417</t>
+  </si>
+  <si>
+    <t>cra 49E 101-44</t>
+  </si>
+  <si>
+    <t>ARRIENDO DIRECTO Villa Santos:  apartamento duplex,  2 alcobas, 2 baños, sala-comedor, zona de labores, un parqueadero, ascensor, salón social, vigilancia, camaras, cerca a centros comerciales, parques.</t>
+  </si>
+  <si>
+    <t>16353.658536585366</t>
+  </si>
+  <si>
+    <t>avenida-libano</t>
+  </si>
+  <si>
+    <t>santa-marta</t>
+  </si>
+  <si>
+    <t>6374557</t>
+  </si>
+  <si>
+    <t>cra 35 34 35</t>
+  </si>
+  <si>
+    <t>AMOBLAD O Excelente ubicación cerca al CENTRO COMERCIAL BELLA VISTA parque ACUÁTICO excelente vista acabados de lujo una habitación un baño cocina tipo americano barra americana balcón exterior, aire acondicionado, totalmente amoblado,  El edificio cuenta con 3 ascensores piscinas GYM guardería infantil dotada teatro, cancha múltiple, salón de juegos, salón social lobby portería y vigilancia 24 horas zona de alta valorización INCLUIDO EL VALOR DE LA ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>46875.0</t>
+  </si>
+  <si>
+    <t>nueva-autopista</t>
+  </si>
+  <si>
+    <t>6604931</t>
+  </si>
+  <si>
+    <t>Calle 146  19 65</t>
+  </si>
+  <si>
+    <t>Excelente ubicación cocina integral para estrenar challenger estufa a gas calentador de paso eléctrico 2 habitaciones 1 baño sala comedor closets en las habitaciones recién pintado como nuevo parqueadero cubierto 2 piso interior el edificio tiene ascensor Porteria vigilancia 7 24 Cerca estación de trans milenio a una cuadra de la 19 cuadra y media de la autopista Cerca a Ctro Cial Caobos y Granada hill Directamente INCLUIDA EL VALOR DE LA ADMON EN EL PRECIO</t>
+  </si>
+  <si>
+    <t>27777.777777777777</t>
+  </si>
+  <si>
+    <t>bonanza</t>
+  </si>
+  <si>
+    <t>6726014</t>
+  </si>
+  <si>
+    <t>carrera 70  78</t>
+  </si>
+  <si>
+    <t>Sala comedor, dos habitaciones, un baño, iluminado, bien ubicado, segundo piso</t>
+  </si>
+  <si>
+    <t>14583.333333333334</t>
+  </si>
+  <si>
+    <t>reserva-del-lago</t>
+  </si>
+  <si>
+    <t>cajica</t>
+  </si>
+  <si>
+    <t>6713909</t>
+  </si>
+  <si>
+    <t>KM 4 VARIANTE CAJICA ZIPA CONJUNTO RESERVA DEL LAGO</t>
+  </si>
+  <si>
+    <t>Apartamento esquinero con doble balcón, parqueadero cubierto privado, 3 alcobas, 2 baños, estudio, cocina tipo americana, patio de ropas, bien iluminado, sobre la variante cajica, facil acceso, 40.000 mts parque privado.</t>
+  </si>
+  <si>
+    <t>21518.98734177215</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,10 +650,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -197,11 +664,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -243,7 +718,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,9 +750,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,6 +785,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,204 +961,1244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="31.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="31.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="31.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="270" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B8" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1">
+        <v>104</v>
+      </c>
+      <c r="G8" s="1">
+        <v>97</v>
+      </c>
+      <c r="H8" s="1">
+        <v>90</v>
+      </c>
+      <c r="I8" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1">
+        <v>102</v>
+      </c>
+      <c r="L8" s="1">
+        <v>76</v>
+      </c>
+      <c r="M8" s="1">
+        <v>90</v>
+      </c>
+      <c r="N8" s="1">
+        <v>84</v>
+      </c>
+      <c r="O8" s="1">
+        <v>54</v>
+      </c>
+      <c r="P8" s="1">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>55</v>
+      </c>
+      <c r="R8" s="1">
+        <v>36</v>
+      </c>
+      <c r="S8" s="1">
+        <v>53</v>
+      </c>
+      <c r="T8" s="1">
+        <v>75</v>
+      </c>
+      <c r="U8" s="1">
+        <v>34</v>
+      </c>
+      <c r="V8" s="1">
+        <v>55</v>
+      </c>
+      <c r="W8" s="1">
+        <v>64</v>
+      </c>
+      <c r="X8" s="1">
+        <v>82</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>54</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>72</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>79</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
+        <v>24192275</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1050000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>900000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1350000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1100000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1550000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>850000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2700000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1900000</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2700000</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1980000</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="R9" s="1">
+        <v>810000</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1850000</v>
+      </c>
+      <c r="T9" s="1">
+        <v>850000</v>
+      </c>
+      <c r="U9" s="1">
+        <v>840000</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1900000</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1725000</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1341000</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1050000</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1700000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>109</v>
-      </c>
-      <c r="C8">
-        <v>25.7</v>
-      </c>
-      <c r="D8">
-        <v>23.14</v>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1">
+        <v>70.23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4.6593737602233887</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.725703239440918</v>
+      </c>
+      <c r="E13" s="1">
+        <v>70.23</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7.1225690841674796</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11.029709815979</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4.7121391296386719</v>
+      </c>
+      <c r="I13" s="1">
+        <v>70.23</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4.7516670227050781</v>
+      </c>
+      <c r="K13" s="1">
+        <v>70.23</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4.6201910972595206</v>
+      </c>
+      <c r="M13" s="1">
+        <v>70.23</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4.6428499221801758</v>
+      </c>
+      <c r="O13" s="1">
+        <v>4.6141061782836914</v>
+      </c>
+      <c r="P13" s="1">
+        <v>4.7013101577758789</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>4.6929898262023926</v>
+      </c>
+      <c r="R13" s="1">
+        <v>4.7411508560180664</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4.6159510612487793</v>
+      </c>
+      <c r="T13" s="1">
+        <v>4.7385802268981934</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4.7607226371765137</v>
+      </c>
+      <c r="V13" s="1">
+        <v>4.7143869400024414</v>
+      </c>
+      <c r="W13" s="1">
+        <v>4.6941418647766113</v>
+      </c>
+      <c r="X13" s="1">
+        <v>2.7239260673522949</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>11.2178897857666</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>4.7287001609802246</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>4.6868062019348136</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>4.9235291481018066</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>2500000</v>
-      </c>
-      <c r="C9">
-        <v>24192275</v>
-      </c>
-      <c r="D9">
-        <v>289506000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>4.649727344512939</v>
-      </c>
-      <c r="C13">
-        <v>70.23</v>
-      </c>
-      <c r="D13">
-        <v>4.593146800994873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>-74.06437683105469</v>
-      </c>
-      <c r="C14">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1">
         <v>-70.45</v>
       </c>
-      <c r="D14">
-        <v>-74.10810089111328</v>
+      <c r="C14" s="1">
+        <v>-74.063369750976563</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-74.059036254882813</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-70.45</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-73.116241455078125</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-74.863670349121094</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-74.0472412109375</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-70.45</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-74.064285278320313</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-70.45</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-74.069602966308594</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-70.45</v>
+      </c>
+      <c r="N14" s="1">
+        <v>-74.061302185058594</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-74.125045776367188</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-74.030357360839844</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-74.051963806152344</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-74.028861999511719</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-74.065017700195313</v>
+      </c>
+      <c r="T14" s="1">
+        <v>-74.09332275390625</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-74.039070129394531</v>
+      </c>
+      <c r="V14" s="1">
+        <v>-74.088409423828125</v>
+      </c>
+      <c r="W14" s="1">
+        <v>-74.06243896484375</v>
+      </c>
+      <c r="X14" s="1">
+        <v>-67.561203002929688</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>-74.168960571289063</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>-74.046653747558594</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>-74.089759826660156</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>-74.012664794921875</v>
       </c>
     </row>
   </sheetData>
@@ -689,6 +2206,30 @@
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="C1" r:id="rId2"/>
     <hyperlink ref="D1" r:id="rId3"/>
+    <hyperlink ref="E1" r:id="rId4"/>
+    <hyperlink ref="F1" r:id="rId5"/>
+    <hyperlink ref="G1" r:id="rId6"/>
+    <hyperlink ref="H1" r:id="rId7"/>
+    <hyperlink ref="I1" r:id="rId8"/>
+    <hyperlink ref="J1" r:id="rId9"/>
+    <hyperlink ref="K1" r:id="rId10"/>
+    <hyperlink ref="L1" r:id="rId11"/>
+    <hyperlink ref="M1" r:id="rId12"/>
+    <hyperlink ref="N1" r:id="rId13"/>
+    <hyperlink ref="O1" r:id="rId14"/>
+    <hyperlink ref="P1" r:id="rId15"/>
+    <hyperlink ref="Q1" r:id="rId16"/>
+    <hyperlink ref="R1" r:id="rId17"/>
+    <hyperlink ref="S1" r:id="rId18"/>
+    <hyperlink ref="T1" r:id="rId19"/>
+    <hyperlink ref="U1" r:id="rId20"/>
+    <hyperlink ref="V1" r:id="rId21"/>
+    <hyperlink ref="W1" r:id="rId22"/>
+    <hyperlink ref="X1" r:id="rId23"/>
+    <hyperlink ref="Y1" r:id="rId24"/>
+    <hyperlink ref="Z1" r:id="rId25"/>
+    <hyperlink ref="AA1" r:id="rId26"/>
+    <hyperlink ref="AB1" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -79,90 +79,90 @@
     <t>cota</t>
   </si>
   <si>
+    <t>quinta-camacho</t>
+  </si>
+  <si>
+    <t>santa-rosa-de-cabal</t>
+  </si>
+  <si>
+    <t>centro-internacional</t>
+  </si>
+  <si>
+    <t>llanogrande</t>
+  </si>
+  <si>
+    <t>chapinero</t>
+  </si>
+  <si>
+    <t>la-flora</t>
+  </si>
+  <si>
+    <t>tequendama</t>
+  </si>
+  <si>
+    <t>unicentro</t>
+  </si>
+  <si>
+    <t>modelia</t>
+  </si>
+  <si>
+    <t>ciudad-fabricato</t>
+  </si>
+  <si>
+    <t>antonia-santos-centro</t>
+  </si>
+  <si>
+    <t>centro-comercial-mazuren</t>
+  </si>
+  <si>
+    <t>centro</t>
+  </si>
+  <si>
+    <t>alameda</t>
+  </si>
+  <si>
+    <t>carvajal</t>
+  </si>
+  <si>
+    <t>bolarqui</t>
+  </si>
+  <si>
+    <t>fontibon</t>
+  </si>
+  <si>
+    <t>las-villas</t>
+  </si>
+  <si>
+    <t>centro-comercial-santafe</t>
+  </si>
+  <si>
+    <t>la-estanzuela</t>
+  </si>
+  <si>
+    <t>quiroga</t>
+  </si>
+  <si>
+    <t>el-poblado</t>
+  </si>
+  <si>
     <t>engativa</t>
   </si>
   <si>
-    <t>ciudad-fabricato</t>
-  </si>
-  <si>
-    <t>santa-rosa-de-cabal</t>
-  </si>
-  <si>
-    <t>modelia</t>
-  </si>
-  <si>
-    <t>alameda</t>
-  </si>
-  <si>
-    <t>quiroga</t>
-  </si>
-  <si>
-    <t>antonia-santos-centro</t>
-  </si>
-  <si>
-    <t>carvajal</t>
-  </si>
-  <si>
-    <t>llanogrande</t>
-  </si>
-  <si>
-    <t>unicentro</t>
-  </si>
-  <si>
-    <t>centro</t>
-  </si>
-  <si>
-    <t>chapinero</t>
-  </si>
-  <si>
-    <t>centro-comercial-mazuren</t>
-  </si>
-  <si>
-    <t>las-villas</t>
-  </si>
-  <si>
-    <t>fontibon</t>
-  </si>
-  <si>
-    <t>la-flora</t>
-  </si>
-  <si>
-    <t>tequendama</t>
-  </si>
-  <si>
-    <t>centro-comercial-santafe</t>
-  </si>
-  <si>
-    <t>el-poblado</t>
-  </si>
-  <si>
-    <t>bolarqui</t>
-  </si>
-  <si>
-    <t>centro-internacional</t>
-  </si>
-  <si>
-    <t>quinta-camacho</t>
-  </si>
-  <si>
-    <t>la-estanzuela</t>
-  </si>
-  <si>
     <t>bogota</t>
   </si>
   <si>
+    <t>rionegro</t>
+  </si>
+  <si>
+    <t>cali</t>
+  </si>
+  <si>
     <t>bello</t>
   </si>
   <si>
     <t>bucaramanga</t>
   </si>
   <si>
-    <t>rionegro</t>
-  </si>
-  <si>
-    <t>cali</t>
-  </si>
-  <si>
     <t>duitama</t>
   </si>
   <si>
@@ -175,330 +175,330 @@
     <t>4985991</t>
   </si>
   <si>
+    <t>6629405</t>
+  </si>
+  <si>
+    <t>6730601</t>
+  </si>
+  <si>
+    <t>6731940</t>
+  </si>
+  <si>
+    <t>6698672</t>
+  </si>
+  <si>
+    <t>5081502</t>
+  </si>
+  <si>
+    <t>6673496</t>
+  </si>
+  <si>
+    <t>6727544</t>
+  </si>
+  <si>
+    <t>6696926</t>
+  </si>
+  <si>
+    <t>6596742</t>
+  </si>
+  <si>
+    <t>6717417</t>
+  </si>
+  <si>
+    <t>6624113</t>
+  </si>
+  <si>
+    <t>6706501</t>
+  </si>
+  <si>
+    <t>6736663</t>
+  </si>
+  <si>
+    <t>6723285</t>
+  </si>
+  <si>
+    <t>6669587</t>
+  </si>
+  <si>
+    <t>6734832</t>
+  </si>
+  <si>
+    <t>6517850</t>
+  </si>
+  <si>
+    <t>6626089</t>
+  </si>
+  <si>
+    <t>6325665</t>
+  </si>
+  <si>
+    <t>4689836</t>
+  </si>
+  <si>
+    <t>6682866</t>
+  </si>
+  <si>
+    <t>6639418</t>
+  </si>
+  <si>
+    <t>6538472</t>
+  </si>
+  <si>
+    <t>6682412</t>
+  </si>
+  <si>
     <t>6668994</t>
   </si>
   <si>
-    <t>6624113</t>
-  </si>
-  <si>
-    <t>6730601</t>
-  </si>
-  <si>
-    <t>6717417</t>
-  </si>
-  <si>
-    <t>6669587</t>
-  </si>
-  <si>
-    <t>6639418</t>
-  </si>
-  <si>
-    <t>6706501</t>
-  </si>
-  <si>
-    <t>6734832</t>
-  </si>
-  <si>
-    <t>6698672</t>
-  </si>
-  <si>
-    <t>6538472</t>
-  </si>
-  <si>
-    <t>6596742</t>
-  </si>
-  <si>
-    <t>6723285</t>
-  </si>
-  <si>
-    <t>5081502</t>
-  </si>
-  <si>
-    <t>6736663</t>
-  </si>
-  <si>
-    <t>6325665</t>
-  </si>
-  <si>
-    <t>6626089</t>
-  </si>
-  <si>
-    <t>6673496</t>
-  </si>
-  <si>
-    <t>6696926</t>
-  </si>
-  <si>
-    <t>4689836</t>
-  </si>
-  <si>
-    <t>6682412</t>
-  </si>
-  <si>
-    <t>6517850</t>
-  </si>
-  <si>
-    <t>6731940</t>
-  </si>
-  <si>
-    <t>6629405</t>
-  </si>
-  <si>
-    <t>6727544</t>
-  </si>
-  <si>
-    <t>6682866</t>
-  </si>
-  <si>
     <t>Av. Caracas 58 - 28</t>
   </si>
   <si>
     <t>El Rosal-Bogotá, Cota, Cundinamarca</t>
   </si>
   <si>
+    <t>cra 13  68 - 76</t>
+  </si>
+  <si>
+    <t>CALLE 14   14- 51</t>
+  </si>
+  <si>
+    <t>Calle 31 # 6 -23 y 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Km 4 vía llanogrande-Rionegro, frente colegio campestre Horizontes </t>
+  </si>
+  <si>
+    <t>CARRERA 13   54- 25</t>
+  </si>
+  <si>
+    <t>av 6N #40n-12</t>
+  </si>
+  <si>
+    <t>Totalmente remodelado y una ampliación totalmente nueva, ubicada en la mejor área de Tequendama.</t>
+  </si>
+  <si>
+    <t>Carrera 42a 5c-18</t>
+  </si>
+  <si>
+    <t>CRA 100 No. 5-169</t>
+  </si>
+  <si>
+    <t>Calle 24C 80C 34</t>
+  </si>
+  <si>
+    <t>CR 50 38 201 LC 113</t>
+  </si>
+  <si>
+    <t>CRA 25  35</t>
+  </si>
+  <si>
+    <t>Carrera 46  152 - 46</t>
+  </si>
+  <si>
+    <t>Carrera 15 entre Calles 16-17 Local 222</t>
+  </si>
+  <si>
+    <t>carrera 13  23-06</t>
+  </si>
+  <si>
+    <t>CRA 69B No 36 - 15 SUR - 2 Y 3 PISO</t>
+  </si>
+  <si>
+    <t>Cra 28  55a - 40</t>
+  </si>
+  <si>
+    <t>calle19 Nº 99-48</t>
+  </si>
+  <si>
+    <t>Carrera 58 # 128 B - 30</t>
+  </si>
+  <si>
+    <t>Avenida Carrera 45 185</t>
+  </si>
+  <si>
+    <t>Carrera 19 A # 8 - 39 - Centro comercial Puerto Vallarta - Contactenos al celular 3208504276 - 31078</t>
+  </si>
+  <si>
+    <t>Carrera 24 # 33-87 sur</t>
+  </si>
+  <si>
+    <t>CALLE 59 13 20</t>
+  </si>
+  <si>
+    <t>Cra 29 con Calle 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Centro comercial Nuestro Bogota </t>
   </si>
   <si>
-    <t>CR 50 38 201 LC 113</t>
-  </si>
-  <si>
-    <t>CALLE 14   14- 51</t>
-  </si>
-  <si>
-    <t>Calle 24C 80C 34</t>
-  </si>
-  <si>
-    <t>carrera 13  23-06</t>
-  </si>
-  <si>
-    <t>Carrera 24 # 33-87 sur</t>
-  </si>
-  <si>
-    <t>CRA 25  35</t>
-  </si>
-  <si>
-    <t>CRA 69B No 36 - 15 SUR - 2 Y 3 PISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Km 4 vía llanogrande-Rionegro, frente colegio campestre Horizontes </t>
-  </si>
-  <si>
-    <t>CALLE 59 13 20</t>
-  </si>
-  <si>
-    <t>CRA 100 No. 5-169</t>
-  </si>
-  <si>
-    <t>Carrera 15 entre Calles 16-17 Local 222</t>
-  </si>
-  <si>
-    <t>CARRERA 13   54- 25</t>
-  </si>
-  <si>
-    <t>Carrera 46  152 - 46</t>
-  </si>
-  <si>
-    <t>Carrera 58 # 128 B - 30</t>
-  </si>
-  <si>
-    <t>calle19 Nº 99-48</t>
-  </si>
-  <si>
-    <t>av 6N #40n-12</t>
-  </si>
-  <si>
-    <t>Carrera 42a 5c-18</t>
-  </si>
-  <si>
-    <t>Avenida Carrera 45 185</t>
-  </si>
-  <si>
-    <t>Cra 29 con Calle 5</t>
-  </si>
-  <si>
-    <t>Cra 28  55a - 40</t>
-  </si>
-  <si>
-    <t>Calle 31 # 6 -23 y 25</t>
-  </si>
-  <si>
-    <t>cra 13  68 - 76</t>
-  </si>
-  <si>
-    <t>Totalmente remodelado y una ampliación totalmente nueva, ubicada en la mejor área de Tequendama.</t>
-  </si>
-  <si>
-    <t>Carrera 19 A # 8 - 39 - Centro comercial Puerto Vallarta - Contactenos al celular 3208504276 - 31078</t>
-  </si>
-  <si>
     <t>Vitra Art Apartamentos, la mejor inversión en Bogotá. Edf. de 25 pisos con 281 unidades de vivienda (con licencia turística Airbnb) ubicado estratégicamente en el sector de Chapinero, tradicionalmente un barrio empresarial, comercial y universitario. El diseño de este proyecto es moderno, innovando en fachadas y ventanearías, con acabados de la mejor calidad y muy bien logrados. ULTIMOS Apartamentos disponibles para ESTRENAR! (ENTREGA INMEDIATA). AGENDA TU CITA! www.proyectamosyedificamos.com.</t>
   </si>
   <si>
     <t>Encuentra,  Arrienda o Vende con nosotros. Siempre más opciones en www.homesnbricks.com Visitanos!! En arriendo local comercial en Arena Bogotá. Contamos con áreas desde 10m2 en adelante. El complejo inmobiliario más ambicioso del país,  está ubicado en el principal centro de desarrollo y valorización de la Bogotá ampliada. Contará con: Arena Market (concepto de mercado estilo europeo para degustar platos de todo el mundo) - Arena Fest,  para jóvenes,  zona de locales con contenido para el entretenimiento - Coliseo de eventos: Arena Bogotá ofrecerá capacidad para más de 22.000 personas que disfrutarán cómodamente de una gran variedad de eventos  Arena Kids,  Hotel,  Salas de Cine .</t>
   </si>
   <si>
+    <t>LOCAL COMERCIAL UBICADO EN EL BARRIO QUINTA CAMACHO FRENTE A LA ESTACION DE FLORES CUENTA CON 2 BAÑOS</t>
+  </si>
+  <si>
+    <t>Local en primer piso con excelente ubicación,  en pleno centro de Santa Rosa de Cabal,  sobre la calle 14. Cuenta con un área útil total de 270M2,  gran espacio abierto con ventanales de vidrio en fachada,  de piso a techo,  que dan una excelente ventilación e iluminación natural. Goza de una ubicación privilegiada al estar sobre la calle 14,  vía comercial de la ciudad,  a tan solo una cuadra del parque principal las araucarias. Con un alto flujo peatonal,  vehicular y paso principal para los centros de comercio mas importantes de la región. En pleno centro,  a poca distancia a pie,  de iglesias,  centros de salud,  restaurantes,  centros de entretenimiento,  entidades financieras,  entre otros,  siendo un excepcional lugar en el centro de la ciudad para potenciar su negocio,  por su gran visibilidad y espacio.  876-1120.</t>
+  </si>
+  <si>
+    <t>Son 2 locales unidos adaptados para restaurante o comidas rápidas y Bar tiene todos los implementos como estufas horno neveras mesones ollas vajilla sillas mesas equipo sonido etc</t>
+  </si>
+  <si>
+    <t>Local destinado para servicios rodeado de instituciones educativas</t>
+  </si>
+  <si>
+    <t>Excelente local,  doble altura  espacio abierto,  mezanine,  dos baños,  acceso con cortinas metálicas. recien remodelado  Se encuentra en la zona comercial más importante del sector de chapinero,  zona bancaria marcas importantes tales como el éxito,  KFC,  Porvenir. Cuenta con buenas vías de acceso carrera trece,  calle cincuenta y tres,  Av. Caracas. Transporte público cercano  161-3666.</t>
+  </si>
+  <si>
+    <t>Casa esquinera dividida en 3 locales Droguerías Comfandi en el local esquinero Un centro de estética y masajes en el segundo piso y el local en alquiler en donde estuvo Café Tostao recientemente Ubicado sobre toda la Av 6N alto flujo vehicular y peatonal El local contigüo es una barbería Son aproximadamente 70mts2 más la pobilidad de usar el antejardin como terraza Para más info escríbeme al whatsapp</t>
+  </si>
+  <si>
+    <t>Esta remodelado y una ampliación totalmente nueva</t>
+  </si>
+  <si>
+    <t>Local Comercial Entrada Principal En Vidrio</t>
+  </si>
+  <si>
+    <t>LOCAL COMERCIAL CON EXCELENTE UBICACIÓN EN CENTRO COMERCIAL UNICENTRO CANON 8.289.750+ ADMON 2.018.780 + IVA. CON CIRCUITO CERRADO DE TV,  PARQUEADERO PARA VISITANTES,  VIGILANCIA 24/7..</t>
+  </si>
+  <si>
+    <t>GANGA NO ARRENDAMOS PARA BARES DISCOTECAS RESTAURANTES LICORERAS COMPARE EXCELENTE UBICACIÓN PARA OFICINAS NEGOCIOS DE SERVICIO A LA COMUNIDAD RODEADO DE LAS PRINCIPALES AVEDA EL DORADO LA ESPERANZA CALI BOYACA BAHÍA DE PARQUEO ZONA COMERCIAL A 50 METROS DEL PARQUE Y LA IGLESIA RECURSIVO NO SE ARRIENDA PARA BARES NI DISCOTECAS NI RESTAURANTES</t>
+  </si>
+  <si>
+    <t>Código 6277. SEMISOTANO EN EDIFICACION DE 5 PISOS. Acceso al inmueble: Directo a la vía,  sendero peatonal,  ascensor y escalas. CANON + IVA,  INMUEBLE CON SALIDA A LA CALLE 1° PISO E INTERNAMENTE AL MALL SOTANO 1. INQUILINO DEBE ASUMIR COSTO DE ADMINISTRACION  DEL CENTRO COMERCIAL,  INMUEBLE SE ENTREGA EN OBRA BLANCA,  INAGURACION DEL CENTRO COMERCIAL EN OCTUBRE..</t>
+  </si>
+  <si>
+    <t>MAYOR INFORMACION VISITE www.paseoespanainmobiliaria.com - COD 8553 VALOR DEL CANON +IVA.</t>
+  </si>
+  <si>
+    <t>Excelentes locales de dos niveles 42,9 m2, primer nivel 26.73 m2 y el segundo 15.36 m2 construidos, localizado en segundo piso del centro comercial Mazuren Frente estación Transmilenio calle 146, cctv vigilancia 24/7 zona de gran concentración de vivienda multifamliar, con plazoleta de comidas, parqueaderos cubiertos, juegos infantiles y almacén de cadena. El lugar ideal para localizar su negocio e incrementar ingresos. Para mayor información contactarse.</t>
+  </si>
+  <si>
+    <t>Local Centro Empresarial DURDAN 2do Nivel muy bien ubicado cerca Parque Los Libertadores</t>
+  </si>
+  <si>
+    <t>Amplia esquina comercial de la carrera 13 Excelente ubicación. Esquina rodeada de universidades, entidades públicas, colegios, establecimientos comerciales de eléctricos y supermercados (D1, entre otros) Locales dotados de servicios y baños independientes y del mejor sistema de seguridad</t>
+  </si>
+  <si>
+    <t>Local ubicado en el barrio carvajal, 2do piso cuenta con 90mt² y un baño, 3er piso 110mt² 1 baño y los dos cuentan con piso laminado</t>
+  </si>
+  <si>
+    <t>Arriendo local directamente en sector comercial, super ubicados, con aire acondicionado, citofonia central,buena iluminación.</t>
+  </si>
+  <si>
+    <t>se arrienda excelente local de 270M2 sobre vía principal en Fontibón lugar de alto flujo peatonal muy buena posición comercial cerca a la plaza de mercado precio negociable.</t>
+  </si>
+  <si>
+    <t>Arrendamos excelente local comercial sobre avenida Las Villas,  cuenta con amplios espacios,  excelente vitrina,  sector comercial de alto flujo peatonal,  cómodas vías de acceso,  cerca a Centro Comercial Bulevar Niza..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermoso local ideal para pescadería y carnes. NO SE COBRARÁ ARRIENDO proporcionalmente por los DIAS CERRADOS  ocasionados por normativa del gobierno por pandemia. Este local es perfecto para comidas, ubicado en el centro comercial santafe, plaza ecuador, tercer piso. sillas de barra, campana extractora, red de incendios, muebles en acero inoxidable,  mezzanine.  Total area 44,41m2. </t>
+  </si>
+  <si>
+    <t>Centro Comercial Puerto Vallarta en el sector más concurrido y comercial de San Andresito de San José se arrienda locales y Bodegas de diferentes tamaños y precios el centro comercial consta de 3 pisos los dos primeros pisos son locales de diferentes tamaños ubicación y precios y tercer piso de bodegas de diferentes tamaños y precios Te esperamos llámanos</t>
+  </si>
+  <si>
+    <t>Local amplio zona comercial sobre avenida principal los servicios de agua y luz con sus contadores independientes Se arrienda con póliza de seguro con MAPFRE Precio del arriendo negociable</t>
+  </si>
+  <si>
+    <t>OPORTUNIDAD Arriendo LOCAL apta para consultorio,  oficina,  otros,  36 m2,  con baño privado,  tercer piso,  excelente ubicación,  buena iluminación,  transporte cercano..</t>
+  </si>
+  <si>
+    <t>Oficina local o bodega con ruta de acceso directo a vía Linares transcersal superior o transversal inferior Ubicada frente al CC El Tesoro con 170 m2 distribuídos así salón de 80 m2 3 habitaciones para oficina 3 baños y un sótano de 25 m2 Local perfecto para pequeña planta de producción cocina oculta u oficinas amplias e iluminadas</t>
+  </si>
+  <si>
     <t>Excelente local 3 piso pasillo principal diagonal plazoleta comidas</t>
   </si>
   <si>
-    <t>Código 6277. SEMISOTANO EN EDIFICACION DE 5 PISOS. Acceso al inmueble: Directo a la vía,  sendero peatonal,  ascensor y escalas. CANON + IVA,  INMUEBLE CON SALIDA A LA CALLE 1° PISO E INTERNAMENTE AL MALL SOTANO 1. INQUILINO DEBE ASUMIR COSTO DE ADMINISTRACION  DEL CENTRO COMERCIAL,  INMUEBLE SE ENTREGA EN OBRA BLANCA,  INAGURACION DEL CENTRO COMERCIAL EN OCTUBRE..</t>
-  </si>
-  <si>
-    <t>Local en primer piso con excelente ubicación,  en pleno centro de Santa Rosa de Cabal,  sobre la calle 14. Cuenta con un área útil total de 270M2,  gran espacio abierto con ventanales de vidrio en fachada,  de piso a techo,  que dan una excelente ventilación e iluminación natural. Goza de una ubicación privilegiada al estar sobre la calle 14,  vía comercial de la ciudad,  a tan solo una cuadra del parque principal las araucarias. Con un alto flujo peatonal,  vehicular y paso principal para los centros de comercio mas importantes de la región. En pleno centro,  a poca distancia a pie,  de iglesias,  centros de salud,  restaurantes,  centros de entretenimiento,  entidades financieras,  entre otros,  siendo un excepcional lugar en el centro de la ciudad para potenciar su negocio,  por su gran visibilidad y espacio.  876-1120.</t>
-  </si>
-  <si>
-    <t>GANGA NO ARRENDAMOS PARA BARES DISCOTECAS RESTAURANTES LICORERAS COMPARE EXCELENTE UBICACIÓN PARA OFICINAS NEGOCIOS DE SERVICIO A LA COMUNIDAD RODEADO DE LAS PRINCIPALES AVEDA EL DORADO LA ESPERANZA CALI BOYACA BAHÍA DE PARQUEO ZONA COMERCIAL A 50 METROS DEL PARQUE Y LA IGLESIA RECURSIVO NO SE ARRIENDA PARA BARES NI DISCOTECAS NI RESTAURANTES</t>
-  </si>
-  <si>
-    <t>Amplia esquina comercial de la carrera 13 Excelente ubicación. Esquina rodeada de universidades, entidades públicas, colegios, establecimientos comerciales de eléctricos y supermercados (D1, entre otros) Locales dotados de servicios y baños independientes y del mejor sistema de seguridad</t>
-  </si>
-  <si>
-    <t>Local amplio zona comercial sobre avenida principal los servicios de agua y luz con sus contadores independientes Se arrienda con póliza de seguro con MAPFRE Precio del arriendo negociable</t>
-  </si>
-  <si>
-    <t>MAYOR INFORMACION VISITE www.paseoespanainmobiliaria.com - COD 8553 VALOR DEL CANON +IVA.</t>
-  </si>
-  <si>
-    <t>Local ubicado en el barrio carvajal, 2do piso cuenta con 90mt² y un baño, 3er piso 110mt² 1 baño y los dos cuentan con piso laminado</t>
-  </si>
-  <si>
-    <t>Local destinado para servicios rodeado de instituciones educativas</t>
-  </si>
-  <si>
-    <t>OPORTUNIDAD Arriendo LOCAL apta para consultorio,  oficina,  otros,  36 m2,  con baño privado,  tercer piso,  excelente ubicación,  buena iluminación,  transporte cercano..</t>
-  </si>
-  <si>
-    <t>LOCAL COMERCIAL CON EXCELENTE UBICACIÓN EN CENTRO COMERCIAL UNICENTRO CANON 8.289.750+ ADMON 2.018.780 + IVA. CON CIRCUITO CERRADO DE TV,  PARQUEADERO PARA VISITANTES,  VIGILANCIA 24/7..</t>
-  </si>
-  <si>
-    <t>Local Centro Empresarial DURDAN 2do Nivel muy bien ubicado cerca Parque Los Libertadores</t>
-  </si>
-  <si>
-    <t>Excelente local,  doble altura  espacio abierto,  mezanine,  dos baños,  acceso con cortinas metálicas. recien remodelado  Se encuentra en la zona comercial más importante del sector de chapinero,  zona bancaria marcas importantes tales como el éxito,  KFC,  Porvenir. Cuenta con buenas vías de acceso carrera trece,  calle cincuenta y tres,  Av. Caracas. Transporte público cercano  161-3666.</t>
-  </si>
-  <si>
-    <t>Excelentes locales de dos niveles 42,9 m2, primer nivel 26.73 m2 y el segundo 15.36 m2 construidos, localizado en segundo piso del centro comercial Mazuren Frente estación Transmilenio calle 146, cctv vigilancia 24/7 zona de gran concentración de vivienda multifamliar, con plazoleta de comidas, parqueaderos cubiertos, juegos infantiles y almacén de cadena. El lugar ideal para localizar su negocio e incrementar ingresos. Para mayor información contactarse.</t>
-  </si>
-  <si>
-    <t>Arrendamos excelente local comercial sobre avenida Las Villas,  cuenta con amplios espacios,  excelente vitrina,  sector comercial de alto flujo peatonal,  cómodas vías de acceso,  cerca a Centro Comercial Bulevar Niza..</t>
-  </si>
-  <si>
-    <t>se arrienda excelente local de 270M2 sobre vía principal en Fontibón lugar de alto flujo peatonal muy buena posición comercial cerca a la plaza de mercado precio negociable.</t>
-  </si>
-  <si>
-    <t>Casa esquinera dividida en 3 locales Droguerías Comfandi en el local esquinero Un centro de estética y masajes en el segundo piso y el local en alquiler en donde estuvo Café Tostao recientemente Ubicado sobre toda la Av 6N alto flujo vehicular y peatonal El local contigüo es una barbería Son aproximadamente 70mts2 más la pobilidad de usar el antejardin como terraza Para más info escríbeme al whatsapp</t>
-  </si>
-  <si>
-    <t>Local Comercial Entrada Principal En Vidrio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermoso local ideal para pescadería y carnes. NO SE COBRARÁ ARRIENDO proporcionalmente por los DIAS CERRADOS  ocasionados por normativa del gobierno por pandemia. Este local es perfecto para comidas, ubicado en el centro comercial santafe, plaza ecuador, tercer piso. sillas de barra, campana extractora, red de incendios, muebles en acero inoxidable,  mezzanine.  Total area 44,41m2. </t>
-  </si>
-  <si>
-    <t>Oficina local o bodega con ruta de acceso directo a vía Linares transcersal superior o transversal inferior Ubicada frente al CC El Tesoro con 170 m2 distribuídos así salón de 80 m2 3 habitaciones para oficina 3 baños y un sótano de 25 m2 Local perfecto para pequeña planta de producción cocina oculta u oficinas amplias e iluminadas</t>
-  </si>
-  <si>
-    <t>Arriendo local directamente en sector comercial, super ubicados, con aire acondicionado, citofonia central,buena iluminación.</t>
-  </si>
-  <si>
-    <t>Son 2 locales unidos adaptados para restaurante o comidas rápidas y Bar tiene todos los implementos como estufas horno neveras mesones ollas vajilla sillas mesas equipo sonido etc</t>
-  </si>
-  <si>
-    <t>LOCAL COMERCIAL UBICADO EN EL BARRIO QUINTA CAMACHO FRENTE A LA ESTACION DE FLORES CUENTA CON 2 BAÑOS</t>
-  </si>
-  <si>
-    <t>Esta remodelado y una ampliación totalmente nueva</t>
-  </si>
-  <si>
-    <t>Centro Comercial Puerto Vallarta en el sector más concurrido y comercial de San Andresito de San José se arrienda locales y Bodegas de diferentes tamaños y precios el centro comercial consta de 3 pisos los dos primeros pisos son locales de diferentes tamaños ubicación y precios y tercer piso de bodegas de diferentes tamaños y precios Te esperamos llámanos</t>
-  </si>
-  <si>
     <t>543618.5381788486</t>
   </si>
   <si>
     <t>111111.11111111111</t>
   </si>
   <si>
+    <t>56250.0</t>
+  </si>
+  <si>
+    <t>24444.444444444445</t>
+  </si>
+  <si>
+    <t>24166.666666666668</t>
+  </si>
+  <si>
+    <t>123750.0</t>
+  </si>
+  <si>
+    <t>51020.4081632653</t>
+  </si>
+  <si>
+    <t>56428.57142857143</t>
+  </si>
+  <si>
+    <t>35555.555555555555</t>
+  </si>
+  <si>
+    <t>83333.33333333333</t>
+  </si>
+  <si>
+    <t>105000.0</t>
+  </si>
+  <si>
+    <t>39000.0</t>
+  </si>
+  <si>
+    <t>70422.5352112676</t>
+  </si>
+  <si>
+    <t>21951.219512195123</t>
+  </si>
+  <si>
+    <t>41666.666666666664</t>
+  </si>
+  <si>
+    <t>71428.57142857143</t>
+  </si>
+  <si>
+    <t>9000.0</t>
+  </si>
+  <si>
+    <t>37037.03703703704</t>
+  </si>
+  <si>
+    <t>60000.0</t>
+  </si>
+  <si>
+    <t>45714.28571428572</t>
+  </si>
+  <si>
+    <t>61363.63636363636</t>
+  </si>
+  <si>
+    <t>32432.432432432433</t>
+  </si>
+  <si>
+    <t>19444.444444444445</t>
+  </si>
+  <si>
+    <t>23235.29411764706</t>
+  </si>
+  <si>
     <t>163636.36363636365</t>
   </si>
   <si>
-    <t>70422.5352112676</t>
-  </si>
-  <si>
-    <t>24444.444444444445</t>
-  </si>
-  <si>
-    <t>39000.0</t>
-  </si>
-  <si>
-    <t>35555.555555555555</t>
-  </si>
-  <si>
-    <t>32432.432432432433</t>
-  </si>
-  <si>
-    <t>21951.219512195123</t>
-  </si>
-  <si>
-    <t>9000.0</t>
-  </si>
-  <si>
-    <t>123750.0</t>
-  </si>
-  <si>
-    <t>19444.444444444445</t>
-  </si>
-  <si>
-    <t>105000.0</t>
-  </si>
-  <si>
-    <t>71428.57142857143</t>
-  </si>
-  <si>
-    <t>51020.4081632653</t>
-  </si>
-  <si>
-    <t>41666.666666666664</t>
-  </si>
-  <si>
-    <t>45714.28571428572</t>
-  </si>
-  <si>
-    <t>60000.0</t>
-  </si>
-  <si>
-    <t>56428.57142857143</t>
-  </si>
-  <si>
-    <t>83333.33333333333</t>
-  </si>
-  <si>
-    <t>61363.63636363636</t>
-  </si>
-  <si>
-    <t>23235.29411764706</t>
-  </si>
-  <si>
-    <t>37037.03703703704</t>
-  </si>
-  <si>
-    <t>24166.666666666668</t>
-  </si>
-  <si>
-    <t>56250.0</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>constructora</t>
   </si>
   <si>
@@ -514,253 +514,253 @@
     <t>['3227549028']</t>
   </si>
   <si>
+    <t>['3136601734']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['3004773567']</t>
+  </si>
+  <si>
+    <t>['3165288589']</t>
+  </si>
+  <si>
+    <t>['3206746527']</t>
+  </si>
+  <si>
+    <t>['3158288680']</t>
+  </si>
+  <si>
+    <t>['3142214821']</t>
+  </si>
+  <si>
+    <t>['3164524135']</t>
+  </si>
+  <si>
+    <t>['4581781']</t>
+  </si>
+  <si>
+    <t>['3108180746']</t>
+  </si>
+  <si>
+    <t>['3182062815']</t>
+  </si>
+  <si>
+    <t>['3126852235']</t>
+  </si>
+  <si>
+    <t>['3103232598']</t>
+  </si>
+  <si>
+    <t>['3187083682']</t>
+  </si>
+  <si>
+    <t>['3115537531']</t>
+  </si>
+  <si>
+    <t>['3102052068']</t>
+  </si>
+  <si>
+    <t>['3016580276']</t>
+  </si>
+  <si>
+    <t>['3208504376']</t>
+  </si>
+  <si>
+    <t>['4563671']</t>
+  </si>
+  <si>
+    <t>['3118499036']</t>
+  </si>
+  <si>
+    <t>['3206688192']</t>
+  </si>
+  <si>
     <t>['3144445641']</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['4581781']</t>
-  </si>
-  <si>
-    <t>['3126852235']</t>
-  </si>
-  <si>
-    <t>['4563671']</t>
-  </si>
-  <si>
-    <t>['3108180746']</t>
-  </si>
-  <si>
-    <t>['3103232598']</t>
-  </si>
-  <si>
-    <t>['3165288589']</t>
-  </si>
-  <si>
-    <t>['3118499036']</t>
-  </si>
-  <si>
-    <t>['3164524135']</t>
-  </si>
-  <si>
-    <t>['3182062815']</t>
-  </si>
-  <si>
-    <t>['3102052068']</t>
-  </si>
-  <si>
-    <t>['3115537531']</t>
-  </si>
-  <si>
-    <t>['3206746527']</t>
-  </si>
-  <si>
-    <t>['3142214821']</t>
-  </si>
-  <si>
-    <t>['3016580276']</t>
-  </si>
-  <si>
-    <t>['3206688192']</t>
-  </si>
-  <si>
-    <t>['3187083682']</t>
-  </si>
-  <si>
-    <t>['3004773567']</t>
-  </si>
-  <si>
-    <t>['3136601734']</t>
-  </si>
-  <si>
-    <t>['3158288680']</t>
-  </si>
-  <si>
-    <t>['3208504376']</t>
+    <t>jaime</t>
+  </si>
+  <si>
+    <t>humberto</t>
+  </si>
+  <si>
+    <t>Andres Felipe</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonia </t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Ludis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William </t>
+  </si>
+  <si>
+    <t>Clemente Lamus Vargas</t>
+  </si>
+  <si>
+    <t>Catalina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMUEL </t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>Santiago</t>
   </si>
   <si>
     <t>alberto</t>
   </si>
   <si>
-    <t>Tina</t>
-  </si>
-  <si>
-    <t>Ludis</t>
-  </si>
-  <si>
-    <t>Mercedes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">William </t>
-  </si>
-  <si>
-    <t>Andres Felipe</t>
-  </si>
-  <si>
-    <t>Carolina</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Orlando</t>
-  </si>
-  <si>
-    <t>Catalina</t>
-  </si>
-  <si>
-    <t>Santiago</t>
-  </si>
-  <si>
-    <t>Clemente Lamus Vargas</t>
-  </si>
-  <si>
-    <t>humberto</t>
-  </si>
-  <si>
-    <t>jaime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMUEL </t>
+    <t>ramirez</t>
+  </si>
+  <si>
+    <t>herrera</t>
+  </si>
+  <si>
+    <t>Arbelaez Ramirez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobón </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forero </t>
+  </si>
+  <si>
+    <t>Daza</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Contreras</t>
+  </si>
+  <si>
+    <t>Leguizamon</t>
+  </si>
+  <si>
+    <t>Natera</t>
+  </si>
+  <si>
+    <t>Riveros</t>
+  </si>
+  <si>
+    <t>Lamus Vergel</t>
+  </si>
+  <si>
+    <t>Gallo</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>Pacateque Cadena</t>
+  </si>
+  <si>
+    <t>Arbelaez</t>
   </si>
   <si>
     <t>amaya</t>
   </si>
   <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>Natera</t>
-  </si>
-  <si>
-    <t>Pacateque Cadena</t>
-  </si>
-  <si>
-    <t>Riveros</t>
-  </si>
-  <si>
-    <t>Arbelaez Ramirez</t>
-  </si>
-  <si>
-    <t>Leguizamon</t>
-  </si>
-  <si>
-    <t>Contreras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tobón </t>
-  </si>
-  <si>
-    <t>Daza</t>
-  </si>
-  <si>
-    <t>Gallo</t>
-  </si>
-  <si>
-    <t>Arbelaez</t>
-  </si>
-  <si>
-    <t>Lamus Vergel</t>
-  </si>
-  <si>
-    <t>herrera</t>
-  </si>
-  <si>
-    <t>ramirez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forero </t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
     <t>https://fincaraiz.com.co/proyecto-de-vivienda/vitra-art-apartamentos/chapinero-central/bogota/6337605</t>
   </si>
   <si>
     <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/cota/cota/4985991</t>
   </si>
   <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/quinta-camacho/bogota/6629405</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/santa-rosa-de-cabal/santa-rosa-de-cabal/6730601</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/centro-internacional/bogota/6731940</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/llanogrande/rionegro/6698672</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/chapinero/bogota/5081502</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/la-flora/cali/6673496</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/tequendama/cali/6727544</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/tequendama/cali/6696926</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/unicentro/cali/6596742</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/modelia/bogota/6717417</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/ciudad-fabricato/bello/6624113</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/antonia-santos-centro/bucaramanga/6706501</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/centro-comercial-mazuren/bogota/6736663</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/centro/duitama/6723285</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/alameda/bogota/6669587</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/carvajal/bogota/6734832</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/bolarqui/bucaramanga/6517850</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/fontibon/bogota/6626089</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/las-villas/bogota/6325665</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/centro-comercial-santafe/bogota/4689836</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/la-estanzuela/bogota/6682866</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/quiroga/bogota/6639418</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/chapinero-central/bogota/6538472</t>
+  </si>
+  <si>
+    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/el-poblado/medellin/6682412</t>
+  </si>
+  <si>
     <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/engativa/bogota/6668994</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/ciudad-fabricato/bello/6624113</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/santa-rosa-de-cabal/santa-rosa-de-cabal/6730601</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/modelia/bogota/6717417</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/alameda/bogota/6669587</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/quiroga/bogota/6639418</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/antonia-santos-centro/bucaramanga/6706501</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/carvajal/bogota/6734832</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/llanogrande/rionegro/6698672</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/chapinero-central/bogota/6538472</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/unicentro/cali/6596742</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/centro/duitama/6723285</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/chapinero/bogota/5081502</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/centro-comercial-mazuren/bogota/6736663</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/las-villas/bogota/6325665</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/fontibon/bogota/6626089</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/la-flora/cali/6673496</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/tequendama/cali/6696926</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/centro-comercial-santafe/bogota/4689836</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/el-poblado/medellin/6682412</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/bolarqui/bucaramanga/6517850</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/centro-internacional/bogota/6731940</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/quinta-camacho/bogota/6629405</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/tequendama/cali/6727544</t>
-  </si>
-  <si>
-    <t>https://fincaraiz.com.co/inmueble/local-en-arriendo/la-estanzuela/bogota/6682866</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1304,10 @@
         <v>107</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="H4">
-        <v>3600000</v>
+        <v>4500000</v>
       </c>
       <c r="I4" t="s">
         <v>134</v>
@@ -1328,10 +1328,10 @@
         <v>205</v>
       </c>
       <c r="O4">
-        <v>4.684327125549316</v>
+        <v>4.654347896575928</v>
       </c>
       <c r="P4">
-        <v>-74.11588287353516</v>
+        <v>-74.06252288818359</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>224</v>
@@ -1345,7 +1345,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
@@ -1357,10 +1357,10 @@
         <v>108</v>
       </c>
       <c r="G5">
-        <v>142</v>
+        <v>270</v>
       </c>
       <c r="H5">
-        <v>10000000</v>
+        <v>6600000</v>
       </c>
       <c r="I5" t="s">
         <v>135</v>
@@ -1375,10 +1375,10 @@
         <v>167</v>
       </c>
       <c r="O5">
-        <v>6.326774597167969</v>
+        <v>4.865964889526367</v>
       </c>
       <c r="P5">
-        <v>-75.55913543701172</v>
+        <v>-75.62250518798828</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>225</v>
@@ -1392,7 +1392,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
@@ -1404,10 +1404,10 @@
         <v>109</v>
       </c>
       <c r="G6">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="H6">
-        <v>6600000</v>
+        <v>1450000</v>
       </c>
       <c r="I6" t="s">
         <v>136</v>
@@ -1416,16 +1416,22 @@
         <v>157</v>
       </c>
       <c r="K6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L6" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="M6" t="s">
+        <v>189</v>
+      </c>
+      <c r="N6" t="s">
+        <v>206</v>
       </c>
       <c r="O6">
-        <v>4.865964889526367</v>
+        <v>4.617453575134277</v>
       </c>
       <c r="P6">
-        <v>-75.62250518798828</v>
+        <v>-74.067626953125</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>226</v>
@@ -1439,7 +1445,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
@@ -1451,34 +1457,34 @@
         <v>110</v>
       </c>
       <c r="G7">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>1950000</v>
+        <v>990000</v>
       </c>
       <c r="I7" t="s">
         <v>137</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>163</v>
       </c>
       <c r="L7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O7">
-        <v>4.665825843811035</v>
+        <v>6.131457805633545</v>
       </c>
       <c r="P7">
-        <v>-74.11522674560547</v>
+        <v>-75.39848327636719</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>227</v>
@@ -1504,10 +1510,10 @@
         <v>111</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="H8">
-        <v>1600000</v>
+        <v>10000000</v>
       </c>
       <c r="I8" t="s">
         <v>138</v>
@@ -1516,22 +1522,16 @@
         <v>157</v>
       </c>
       <c r="K8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M8" t="s">
-        <v>190</v>
-      </c>
-      <c r="N8" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="O8">
-        <v>4.611074924468994</v>
+        <v>4.641223430633545</v>
       </c>
       <c r="P8">
-        <v>-74.07325744628906</v>
+        <v>-74.06505584716797</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>228</v>
@@ -1545,7 +1545,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>58</v>
@@ -1557,16 +1557,16 @@
         <v>112</v>
       </c>
       <c r="G9">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H9">
-        <v>1200000</v>
+        <v>3950000</v>
       </c>
       <c r="I9" t="s">
         <v>139</v>
       </c>
       <c r="J9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>163</v>
@@ -1581,10 +1581,10 @@
         <v>208</v>
       </c>
       <c r="O9">
-        <v>4.572218894958496</v>
+        <v>3.479249715805054</v>
       </c>
       <c r="P9">
-        <v>-74.11677551269531</v>
+        <v>-76.52529907226562</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>229</v>
@@ -1610,28 +1610,34 @@
         <v>113</v>
       </c>
       <c r="G10">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="H10">
-        <v>900000</v>
+        <v>8000000</v>
       </c>
       <c r="I10" t="s">
         <v>140</v>
       </c>
       <c r="J10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L10" t="s">
         <v>171</v>
       </c>
+      <c r="M10" t="s">
+        <v>192</v>
+      </c>
+      <c r="N10" t="s">
+        <v>209</v>
+      </c>
       <c r="O10">
-        <v>7.121119499206543</v>
+        <v>3.422460079193115</v>
       </c>
       <c r="P10">
-        <v>-73.11841583251953</v>
+        <v>-76.54361724853516</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>230</v>
@@ -1642,10 +1648,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>60</v>
@@ -1657,16 +1663,16 @@
         <v>114</v>
       </c>
       <c r="G11">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="H11">
-        <v>1800000</v>
+        <v>1500000</v>
       </c>
       <c r="I11" t="s">
         <v>141</v>
       </c>
       <c r="J11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>163</v>
@@ -1675,16 +1681,16 @@
         <v>172</v>
       </c>
       <c r="M11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O11">
-        <v>4.615522861480713</v>
+        <v>3.420084953308105</v>
       </c>
       <c r="P11">
-        <v>-74.07058715820312</v>
+        <v>-76.54464721679688</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>231</v>
@@ -1695,10 +1701,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
@@ -1710,34 +1716,28 @@
         <v>115</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>78.95</v>
       </c>
       <c r="H12">
-        <v>990000</v>
+        <v>8289750</v>
       </c>
       <c r="I12" t="s">
         <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L12" t="s">
         <v>173</v>
       </c>
-      <c r="M12" t="s">
-        <v>193</v>
-      </c>
-      <c r="N12" t="s">
-        <v>210</v>
-      </c>
       <c r="O12">
-        <v>6.131457805633545</v>
+        <v>3.42055082321167</v>
       </c>
       <c r="P12">
-        <v>-75.39848327636719</v>
+        <v>-76.52767181396484</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>232</v>
@@ -1748,7 +1748,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -1763,28 +1763,34 @@
         <v>116</v>
       </c>
       <c r="G13">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>700000</v>
+        <v>1950000</v>
       </c>
       <c r="I13" t="s">
         <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
         <v>174</v>
       </c>
+      <c r="M13" t="s">
+        <v>194</v>
+      </c>
+      <c r="N13" t="s">
+        <v>211</v>
+      </c>
       <c r="O13">
-        <v>4.646080017089844</v>
+        <v>4.665825843811035</v>
       </c>
       <c r="P13">
-        <v>-74.06436157226562</v>
+        <v>-74.11522674560547</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>233</v>
@@ -1798,7 +1804,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>63</v>
@@ -1810,28 +1816,28 @@
         <v>117</v>
       </c>
       <c r="G14">
-        <v>78.95</v>
+        <v>142</v>
       </c>
       <c r="H14">
-        <v>8289750</v>
+        <v>10000000</v>
       </c>
       <c r="I14" t="s">
         <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
         <v>162</v>
       </c>
       <c r="L14" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="O14">
-        <v>3.42055082321167</v>
+        <v>6.326774597167969</v>
       </c>
       <c r="P14">
-        <v>-76.52767181396484</v>
+        <v>-75.55913543701172</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>234</v>
@@ -1845,7 +1851,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
@@ -1857,34 +1863,28 @@
         <v>118</v>
       </c>
       <c r="G15">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H15">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
       <c r="I15" t="s">
         <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
-      </c>
-      <c r="M15" t="s">
-        <v>194</v>
-      </c>
-      <c r="N15" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="O15">
-        <v>5.827194213867188</v>
+        <v>7.121119499206543</v>
       </c>
       <c r="P15">
-        <v>-73.03353881835938</v>
+        <v>-73.11841583251953</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>235</v>
@@ -1910,28 +1910,34 @@
         <v>119</v>
       </c>
       <c r="G16">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="H16">
-        <v>10000000</v>
+        <v>7000000</v>
       </c>
       <c r="I16" t="s">
         <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>176</v>
+      </c>
+      <c r="M16" t="s">
+        <v>195</v>
+      </c>
+      <c r="N16" t="s">
+        <v>212</v>
       </c>
       <c r="O16">
-        <v>4.641223430633545</v>
+        <v>4.735249996185303</v>
       </c>
       <c r="P16">
-        <v>-74.06505584716797</v>
+        <v>-74.05027770996094</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>236</v>
@@ -1945,7 +1951,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>66</v>
@@ -1957,34 +1963,34 @@
         <v>120</v>
       </c>
       <c r="G17">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="H17">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
       <c r="I17" t="s">
         <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
         <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O17">
-        <v>4.735249996185303</v>
+        <v>5.827194213867188</v>
       </c>
       <c r="P17">
-        <v>-74.05027770996094</v>
+        <v>-73.03353881835938</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>237</v>
@@ -2010,28 +2016,34 @@
         <v>121</v>
       </c>
       <c r="G18">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="H18">
-        <v>3200000</v>
+        <v>1600000</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s">
         <v>177</v>
       </c>
+      <c r="M18" t="s">
+        <v>197</v>
+      </c>
+      <c r="N18" t="s">
+        <v>214</v>
+      </c>
       <c r="O18">
-        <v>4.716000080108643</v>
+        <v>4.611074924468994</v>
       </c>
       <c r="P18">
-        <v>-74.06900024414062</v>
+        <v>-74.07325744628906</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>238</v>
@@ -2057,28 +2069,34 @@
         <v>122</v>
       </c>
       <c r="G19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H19">
-        <v>9000000</v>
+        <v>1800000</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J19" t="s">
         <v>157</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s">
         <v>178</v>
       </c>
+      <c r="M19" t="s">
+        <v>198</v>
+      </c>
+      <c r="N19" t="s">
+        <v>215</v>
+      </c>
       <c r="O19">
-        <v>4.674310207366943</v>
+        <v>4.615522861480713</v>
       </c>
       <c r="P19">
-        <v>-74.14359283447266</v>
+        <v>-74.07058715820312</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>239</v>
@@ -2104,16 +2122,16 @@
         <v>123</v>
       </c>
       <c r="G20">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="H20">
-        <v>3950000</v>
+        <v>1000000</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
         <v>163</v>
@@ -2122,16 +2140,16 @@
         <v>179</v>
       </c>
       <c r="M20" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N20" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O20">
-        <v>3.479249715805054</v>
+        <v>7.110058784484863</v>
       </c>
       <c r="P20">
-        <v>-76.52529907226562</v>
+        <v>-73.11372375488281</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>240</v>
@@ -2145,7 +2163,7 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
@@ -2157,34 +2175,28 @@
         <v>124</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="H21">
-        <v>1500000</v>
+        <v>9000000</v>
       </c>
       <c r="I21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L21" t="s">
         <v>180</v>
       </c>
-      <c r="M21" t="s">
-        <v>197</v>
-      </c>
-      <c r="N21" t="s">
-        <v>214</v>
-      </c>
       <c r="O21">
-        <v>3.420084953308105</v>
+        <v>4.674310207366943</v>
       </c>
       <c r="P21">
-        <v>-76.54464721679688</v>
+        <v>-74.14359283447266</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>241</v>
@@ -2210,34 +2222,28 @@
         <v>125</v>
       </c>
       <c r="G22">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="H22">
-        <v>2700000</v>
+        <v>3200000</v>
       </c>
       <c r="I22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J22" t="s">
         <v>159</v>
       </c>
       <c r="K22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L22" t="s">
         <v>181</v>
       </c>
-      <c r="M22" t="s">
-        <v>198</v>
-      </c>
-      <c r="N22" t="s">
-        <v>215</v>
-      </c>
       <c r="O22">
-        <v>4.76310938595593</v>
+        <v>4.716000080108643</v>
       </c>
       <c r="P22">
-        <v>-74.04401558955939</v>
+        <v>-74.06900024414062</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>242</v>
@@ -2251,7 +2257,7 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>72</v>
@@ -2263,16 +2269,16 @@
         <v>126</v>
       </c>
       <c r="G23">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="H23">
-        <v>3950000</v>
+        <v>2700000</v>
       </c>
       <c r="I23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
         <v>163</v>
@@ -2281,16 +2287,16 @@
         <v>182</v>
       </c>
       <c r="M23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O23">
-        <v>6.195887088775635</v>
+        <v>4.76310938595593</v>
       </c>
       <c r="P23">
-        <v>-75.56165313720703</v>
+        <v>-74.04401558955939</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>243</v>
@@ -2304,7 +2310,7 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
@@ -2316,16 +2322,16 @@
         <v>127</v>
       </c>
       <c r="G24">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="H24">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="I24" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K24" t="s">
         <v>163</v>
@@ -2334,16 +2340,16 @@
         <v>183</v>
       </c>
       <c r="M24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O24">
-        <v>7.110058784484863</v>
+        <v>4.603700160980225</v>
       </c>
       <c r="P24">
-        <v>-73.11372375488281</v>
+        <v>-74.08838653564453</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>244</v>
@@ -2369,13 +2375,13 @@
         <v>128</v>
       </c>
       <c r="G25">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H25">
-        <v>1450000</v>
+        <v>1200000</v>
       </c>
       <c r="I25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J25" t="s">
         <v>157</v>
@@ -2387,16 +2393,16 @@
         <v>184</v>
       </c>
       <c r="M25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O25">
-        <v>4.617453575134277</v>
+        <v>4.572218894958496</v>
       </c>
       <c r="P25">
-        <v>-74.067626953125</v>
+        <v>-74.11677551269531</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>245</v>
@@ -2407,7 +2413,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -2422,34 +2428,28 @@
         <v>129</v>
       </c>
       <c r="G26">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>4500000</v>
+        <v>700000</v>
       </c>
       <c r="I26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L26" t="s">
         <v>185</v>
       </c>
-      <c r="M26" t="s">
-        <v>202</v>
-      </c>
-      <c r="N26" t="s">
-        <v>219</v>
-      </c>
       <c r="O26">
-        <v>4.654347896575928</v>
+        <v>4.646080017089844</v>
       </c>
       <c r="P26">
-        <v>-74.06252288818359</v>
+        <v>-74.06436157226562</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>246</v>
@@ -2460,10 +2460,10 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>76</v>
@@ -2475,16 +2475,16 @@
         <v>130</v>
       </c>
       <c r="G27">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="H27">
-        <v>8000000</v>
+        <v>3950000</v>
       </c>
       <c r="I27" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="J27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K27" t="s">
         <v>163</v>
@@ -2499,10 +2499,10 @@
         <v>220</v>
       </c>
       <c r="O27">
-        <v>3.422460079193115</v>
+        <v>6.195887088775635</v>
       </c>
       <c r="P27">
-        <v>-76.54361724853516</v>
+        <v>-75.56165313720703</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>247</v>
@@ -2528,16 +2528,16 @@
         <v>131</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H28">
-        <v>500000</v>
+        <v>3600000</v>
       </c>
       <c r="I28" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="J28" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K28" t="s">
         <v>163</v>
@@ -2552,10 +2552,10 @@
         <v>221</v>
       </c>
       <c r="O28">
-        <v>4.603700160980225</v>
+        <v>4.684327125549316</v>
       </c>
       <c r="P28">
-        <v>-74.08838653564453</v>
+        <v>-74.11588287353516</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>248</v>
